--- a/VTU EV Internship Offer Letters/jan_offer_released_applicants_29.xlsx
+++ b/VTU EV Internship Offer Letters/jan_offer_released_applicants_29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6C43B6-10F9-49B0-A213-6971F54D6AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF21BE30-5EA7-43AC-8591-0BDC05FC139A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4375" uniqueCount="1496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="1573">
   <si>
     <t>Name</t>
   </si>
@@ -4508,6 +4508,237 @@
   </si>
   <si>
     <t>9591735639</t>
+  </si>
+  <si>
+    <t>Naveengouda M Khandeppagoudra</t>
+  </si>
+  <si>
+    <t>navi2004naveen@gmail.com</t>
+  </si>
+  <si>
+    <t>6363892629</t>
+  </si>
+  <si>
+    <t>GOVERNMENT ENGINEERING COLLEGE, NARGUND</t>
+  </si>
+  <si>
+    <t>Alan John</t>
+  </si>
+  <si>
+    <t>1hk22ec010@hkbk.edu.in</t>
+  </si>
+  <si>
+    <t>7306883598</t>
+  </si>
+  <si>
+    <t>Pradyumna Y</t>
+  </si>
+  <si>
+    <t>pradyumnay.22.becs@acharya.ac.in</t>
+  </si>
+  <si>
+    <t>8618066180</t>
+  </si>
+  <si>
+    <t>Namratha B S</t>
+  </si>
+  <si>
+    <t>brleelabr@gmail.com</t>
+  </si>
+  <si>
+    <t>9986152553</t>
+  </si>
+  <si>
+    <t>Surya</t>
+  </si>
+  <si>
+    <t>sooryakiranc@gmail.com</t>
+  </si>
+  <si>
+    <t>9008135197</t>
+  </si>
+  <si>
+    <t>Sanjana V K</t>
+  </si>
+  <si>
+    <t>sanjanavk009@gmail.com</t>
+  </si>
+  <si>
+    <t>7483507493</t>
+  </si>
+  <si>
+    <t>Shivani Raddi</t>
+  </si>
+  <si>
+    <t>shivaniraddi@gmail.com</t>
+  </si>
+  <si>
+    <t>8010548920</t>
+  </si>
+  <si>
+    <t>Poorvika K M</t>
+  </si>
+  <si>
+    <t>poorvikakm70@gmail.com</t>
+  </si>
+  <si>
+    <t>9844677088</t>
+  </si>
+  <si>
+    <t>Kavana Nuchin</t>
+  </si>
+  <si>
+    <t>kavananuchin@gmail.com</t>
+  </si>
+  <si>
+    <t>9945524267</t>
+  </si>
+  <si>
+    <t>Vasu H S</t>
+  </si>
+  <si>
+    <t>vasuhs56@gmail.com</t>
+  </si>
+  <si>
+    <t>8310826576</t>
+  </si>
+  <si>
+    <t>Jayanth C N</t>
+  </si>
+  <si>
+    <t>jayanthcn2829@gmail.com</t>
+  </si>
+  <si>
+    <t>7892234062</t>
+  </si>
+  <si>
+    <t>Thilak K M</t>
+  </si>
+  <si>
+    <t>Thilakgowda277@gmail.com</t>
+  </si>
+  <si>
+    <t>9972278154</t>
+  </si>
+  <si>
+    <t>Arpita Ramdurg</t>
+  </si>
+  <si>
+    <t>arpitaramdurg08@gmail.com</t>
+  </si>
+  <si>
+    <t>9740026483</t>
+  </si>
+  <si>
+    <t>Harshwardan Gungune</t>
+  </si>
+  <si>
+    <t>harshwardhangungune@gmail.com</t>
+  </si>
+  <si>
+    <t>9741240582</t>
+  </si>
+  <si>
+    <t>Basavaprabhu Patil</t>
+  </si>
+  <si>
+    <t>basupatil7542@gmail.com</t>
+  </si>
+  <si>
+    <t>7892247465</t>
+  </si>
+  <si>
+    <t>Muhammad nawal sa</t>
+  </si>
+  <si>
+    <t>nabeelnawal301@gmail.com</t>
+  </si>
+  <si>
+    <t>7892060063</t>
+  </si>
+  <si>
+    <t>K.V.G. College of Engg., Sullia</t>
+  </si>
+  <si>
+    <t>K Mahammed Afil</t>
+  </si>
+  <si>
+    <t>hafilappi6@gmail.com</t>
+  </si>
+  <si>
+    <t>6360403945</t>
+  </si>
+  <si>
+    <t>Sufiyan mulla</t>
+  </si>
+  <si>
+    <t>Officialsufu@gmail.com</t>
+  </si>
+  <si>
+    <t>6362164993</t>
+  </si>
+  <si>
+    <t>Gnanashree N V</t>
+  </si>
+  <si>
+    <t>nvgnanashree@gmail.com</t>
+  </si>
+  <si>
+    <t>8792013041</t>
+  </si>
+  <si>
+    <t>Nikhil Naik</t>
+  </si>
+  <si>
+    <t>nikhilsnaik42@gmail.com</t>
+  </si>
+  <si>
+    <t>8951652381</t>
+  </si>
+  <si>
+    <t>Nagendra N</t>
+  </si>
+  <si>
+    <t>nagendran23ecdip@rnsit.ac.in</t>
+  </si>
+  <si>
+    <t>7019171335</t>
+  </si>
+  <si>
+    <t>Priyanka Deepak Daddikar</t>
+  </si>
+  <si>
+    <t>22u1960@students.git.edu</t>
+  </si>
+  <si>
+    <t>9353500755</t>
+  </si>
+  <si>
+    <t>Laxmi Sakri</t>
+  </si>
+  <si>
+    <t>laxmisakri24@gmail.com</t>
+  </si>
+  <si>
+    <t>6360742060</t>
+  </si>
+  <si>
+    <t>Mahananda</t>
+  </si>
+  <si>
+    <t>mahanandab406@gmail.com</t>
+  </si>
+  <si>
+    <t>7795467827</t>
+  </si>
+  <si>
+    <t>Samrudhi Karadi</t>
+  </si>
+  <si>
+    <t>samrudhikaradi70@gmail.com</t>
+  </si>
+  <si>
+    <t>9110422995</t>
   </si>
 </sst>
 </file>
@@ -4870,7 +5101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2F44B6-3A24-461E-A7F3-3C89F4AF5E9F}">
-  <dimension ref="A1:G625"/>
+  <dimension ref="A1:G667"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19251,6 +19482,972 @@
         <v>13</v>
       </c>
     </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A626" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D626" t="s">
+        <v>393</v>
+      </c>
+      <c r="E626" t="s">
+        <v>18</v>
+      </c>
+      <c r="F626" t="s">
+        <v>24</v>
+      </c>
+      <c r="G626" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A627" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D627" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E627" t="s">
+        <v>11</v>
+      </c>
+      <c r="F627" t="s">
+        <v>58</v>
+      </c>
+      <c r="G627" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A628" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C628" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D628" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E628" t="s">
+        <v>11</v>
+      </c>
+      <c r="F628" t="s">
+        <v>121</v>
+      </c>
+      <c r="G628" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A629" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C629" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D629" t="s">
+        <v>260</v>
+      </c>
+      <c r="E629" t="s">
+        <v>18</v>
+      </c>
+      <c r="F629" t="s">
+        <v>35</v>
+      </c>
+      <c r="G629" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A630" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C630" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D630" t="s">
+        <v>293</v>
+      </c>
+      <c r="E630" t="s">
+        <v>11</v>
+      </c>
+      <c r="F630" t="s">
+        <v>49</v>
+      </c>
+      <c r="G630" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A631" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C631" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D631" t="s">
+        <v>140</v>
+      </c>
+      <c r="E631" t="s">
+        <v>338</v>
+      </c>
+      <c r="F631" t="s">
+        <v>19</v>
+      </c>
+      <c r="G631" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A632" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C632" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D632" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E632" t="s">
+        <v>85</v>
+      </c>
+      <c r="F632" t="s">
+        <v>86</v>
+      </c>
+      <c r="G632" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A633" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D633" t="s">
+        <v>23</v>
+      </c>
+      <c r="E633" t="s">
+        <v>11</v>
+      </c>
+      <c r="F633" t="s">
+        <v>67</v>
+      </c>
+      <c r="G633" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A634" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C634" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D634" t="s">
+        <v>23</v>
+      </c>
+      <c r="E634" t="s">
+        <v>11</v>
+      </c>
+      <c r="F634" t="s">
+        <v>58</v>
+      </c>
+      <c r="G634" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A635" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C635" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D635" t="s">
+        <v>23</v>
+      </c>
+      <c r="E635" t="s">
+        <v>11</v>
+      </c>
+      <c r="F635" t="s">
+        <v>67</v>
+      </c>
+      <c r="G635" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A636" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C636" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D636" t="s">
+        <v>23</v>
+      </c>
+      <c r="E636" t="s">
+        <v>11</v>
+      </c>
+      <c r="F636" t="s">
+        <v>121</v>
+      </c>
+      <c r="G636" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A637" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C637" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D637" t="s">
+        <v>904</v>
+      </c>
+      <c r="E637" t="s">
+        <v>80</v>
+      </c>
+      <c r="F637" t="s">
+        <v>155</v>
+      </c>
+      <c r="G637" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A638" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C638" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D638" t="s">
+        <v>904</v>
+      </c>
+      <c r="E638" t="s">
+        <v>80</v>
+      </c>
+      <c r="F638" t="s">
+        <v>12</v>
+      </c>
+      <c r="G638" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A639" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C639" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D639" t="s">
+        <v>408</v>
+      </c>
+      <c r="E639" t="s">
+        <v>53</v>
+      </c>
+      <c r="F639" t="s">
+        <v>40</v>
+      </c>
+      <c r="G639" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A640" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C640" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D640" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E640" t="s">
+        <v>80</v>
+      </c>
+      <c r="F640" t="s">
+        <v>12</v>
+      </c>
+      <c r="G640" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A641" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C641" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D641" t="s">
+        <v>120</v>
+      </c>
+      <c r="E641" t="s">
+        <v>29</v>
+      </c>
+      <c r="F641" t="s">
+        <v>24</v>
+      </c>
+      <c r="G641" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A642" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C642" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D642" t="s">
+        <v>616</v>
+      </c>
+      <c r="E642" t="s">
+        <v>53</v>
+      </c>
+      <c r="F642" t="s">
+        <v>121</v>
+      </c>
+      <c r="G642" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A643" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C643" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D643" t="s">
+        <v>616</v>
+      </c>
+      <c r="E643" t="s">
+        <v>53</v>
+      </c>
+      <c r="F643" t="s">
+        <v>67</v>
+      </c>
+      <c r="G643" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A644" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C644" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D644" t="s">
+        <v>120</v>
+      </c>
+      <c r="E644" t="s">
+        <v>29</v>
+      </c>
+      <c r="F644" t="s">
+        <v>19</v>
+      </c>
+      <c r="G644" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A645" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C645" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D645" t="s">
+        <v>688</v>
+      </c>
+      <c r="E645" t="s">
+        <v>11</v>
+      </c>
+      <c r="F645" t="s">
+        <v>12</v>
+      </c>
+      <c r="G645" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A646" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C646" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D646" t="s">
+        <v>301</v>
+      </c>
+      <c r="E646" t="s">
+        <v>18</v>
+      </c>
+      <c r="F646" t="s">
+        <v>19</v>
+      </c>
+      <c r="G646" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A647" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C647" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D647" t="s">
+        <v>688</v>
+      </c>
+      <c r="E647" t="s">
+        <v>11</v>
+      </c>
+      <c r="F647" t="s">
+        <v>40</v>
+      </c>
+      <c r="G647" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A648" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C648" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D648" t="s">
+        <v>688</v>
+      </c>
+      <c r="E648" t="s">
+        <v>11</v>
+      </c>
+      <c r="F648" t="s">
+        <v>12</v>
+      </c>
+      <c r="G648" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A649" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C649" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D649" t="s">
+        <v>875</v>
+      </c>
+      <c r="E649" t="s">
+        <v>53</v>
+      </c>
+      <c r="F649" t="s">
+        <v>40</v>
+      </c>
+      <c r="G649" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A650" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C650" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D650" t="s">
+        <v>163</v>
+      </c>
+      <c r="E650" t="s">
+        <v>164</v>
+      </c>
+      <c r="F650" t="s">
+        <v>40</v>
+      </c>
+      <c r="G650" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A651" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C651" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D651" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E651" t="s">
+        <v>18</v>
+      </c>
+      <c r="F651" t="s">
+        <v>19</v>
+      </c>
+      <c r="G651" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A652" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C652" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D652" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E652" t="s">
+        <v>18</v>
+      </c>
+      <c r="F652" t="s">
+        <v>19</v>
+      </c>
+      <c r="G652" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A653" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C653" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D653" t="s">
+        <v>120</v>
+      </c>
+      <c r="E653" t="s">
+        <v>29</v>
+      </c>
+      <c r="F653" t="s">
+        <v>24</v>
+      </c>
+      <c r="G653" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A654" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C654" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D654" t="s">
+        <v>400</v>
+      </c>
+      <c r="E654" t="s">
+        <v>961</v>
+      </c>
+      <c r="F654" t="s">
+        <v>35</v>
+      </c>
+      <c r="G654" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A655" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C655" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D655" t="s">
+        <v>23</v>
+      </c>
+      <c r="E655" t="s">
+        <v>18</v>
+      </c>
+      <c r="F655" t="s">
+        <v>24</v>
+      </c>
+      <c r="G655" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A656" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C656" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D656" t="s">
+        <v>400</v>
+      </c>
+      <c r="E656" t="s">
+        <v>961</v>
+      </c>
+      <c r="F656" t="s">
+        <v>24</v>
+      </c>
+      <c r="G656" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A657" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C657" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D657" t="s">
+        <v>400</v>
+      </c>
+      <c r="E657" t="s">
+        <v>961</v>
+      </c>
+      <c r="F657" t="s">
+        <v>86</v>
+      </c>
+      <c r="G657" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A658" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C658" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D658" t="s">
+        <v>148</v>
+      </c>
+      <c r="E658" t="s">
+        <v>18</v>
+      </c>
+      <c r="F658" t="s">
+        <v>24</v>
+      </c>
+      <c r="G658" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A659" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C659" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D659" t="s">
+        <v>400</v>
+      </c>
+      <c r="E659" t="s">
+        <v>961</v>
+      </c>
+      <c r="F659" t="s">
+        <v>40</v>
+      </c>
+      <c r="G659" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A660" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C660" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D660" t="s">
+        <v>293</v>
+      </c>
+      <c r="E660" t="s">
+        <v>11</v>
+      </c>
+      <c r="F660" t="s">
+        <v>40</v>
+      </c>
+      <c r="G660" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A661" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C661" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D661" t="s">
+        <v>904</v>
+      </c>
+      <c r="E661" t="s">
+        <v>80</v>
+      </c>
+      <c r="F661" t="s">
+        <v>49</v>
+      </c>
+      <c r="G661" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A662" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C662" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D662" t="s">
+        <v>23</v>
+      </c>
+      <c r="E662" t="s">
+        <v>367</v>
+      </c>
+      <c r="F662" t="s">
+        <v>86</v>
+      </c>
+      <c r="G662" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A663" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C663" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D663" t="s">
+        <v>817</v>
+      </c>
+      <c r="E663" t="s">
+        <v>11</v>
+      </c>
+      <c r="F663" t="s">
+        <v>35</v>
+      </c>
+      <c r="G663" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A664" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C664" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D664" t="s">
+        <v>128</v>
+      </c>
+      <c r="E664" t="s">
+        <v>18</v>
+      </c>
+      <c r="F664" t="s">
+        <v>35</v>
+      </c>
+      <c r="G664" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A665" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C665" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D665" t="s">
+        <v>163</v>
+      </c>
+      <c r="E665" t="s">
+        <v>164</v>
+      </c>
+      <c r="F665" t="s">
+        <v>67</v>
+      </c>
+      <c r="G665" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A666" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C666" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D666" t="s">
+        <v>84</v>
+      </c>
+      <c r="E666" t="s">
+        <v>11</v>
+      </c>
+      <c r="F666" t="s">
+        <v>155</v>
+      </c>
+      <c r="G666" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A667" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C667" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D667" t="s">
+        <v>163</v>
+      </c>
+      <c r="E667" t="s">
+        <v>164</v>
+      </c>
+      <c r="F667" t="s">
+        <v>49</v>
+      </c>
+      <c r="G667" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
